--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value219.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value219.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.114677564033755</v>
+        <v>1.339434623718262</v>
       </c>
       <c r="B1">
-        <v>1.397447667942693</v>
+        <v>2.466507911682129</v>
       </c>
       <c r="C1">
-        <v>1.458665616355926</v>
+        <v>4.842360973358154</v>
       </c>
       <c r="D1">
-        <v>1.529406116694152</v>
+        <v>2.441564321517944</v>
       </c>
       <c r="E1">
-        <v>1.823864952559055</v>
+        <v>0.9265078902244568</v>
       </c>
     </row>
   </sheetData>
